--- a/InterfaceTest/TestCase/TestCase000.xlsx
+++ b/InterfaceTest/TestCase/TestCase000.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="241">
   <si>
     <t>用例编号</t>
   </si>
@@ -65,13 +65,860 @@
     <t>msg~code~status</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>手机号注册</t>
+  </si>
+  <si>
+    <t>/driver/register</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>｛"username":"123","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"｝</t>
+  </si>
+  <si>
+    <t>driver_id</t>
+  </si>
+  <si>
+    <t>邮箱注册</t>
+  </si>
+  <si>
+    <t>｛"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"｝</t>
+  </si>
+  <si>
+    <t>完善资料</t>
+  </si>
+  <si>
+    <t>/driver/register/fill_driver_info</t>
+  </si>
+  <si>
+    <t>｛"driver_id":"123","first_name":"jack","last_name":"bryce","sex":"1","car_type":"1","car_num":"lwx-aaa"｝</t>
+  </si>
+  <si>
+    <t>driver_id~carType~car_id</t>
+  </si>
+  <si>
+    <t>完成注册</t>
+  </si>
+  <si>
+    <t>/driver/register/finish_register</t>
+  </si>
+  <si>
+    <t>｛"driver_id":"123","job_number":"001"｝</t>
+  </si>
+  <si>
+    <t>driver_id~token</t>
+  </si>
+  <si>
+    <t>手机号登录</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>{
+ "username":"8618899715996",
+ "password":"123456",
+ "device_id":"ffffffff-fb4a-5b9b-0000-00001509babd",
+ "platform":"android",
+ "device_token":"",
+ "language":"china"
+}</t>
+  </si>
+  <si>
+    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~car_type~avatar~score~amount</t>
+  </si>
+  <si>
+    <t>邮箱登录</t>
+  </si>
+  <si>
+    <t>｛"username":"271295224@qq.com","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"｝</t>
+  </si>
+  <si>
+    <t>退出登录</t>
+  </si>
+  <si>
+    <t>/driver/logout</t>
+  </si>
+  <si>
+    <t>｛"driver_id":"123"｝</t>
+  </si>
+  <si>
+    <t>返回值=n</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>/driver/login/forget_pwd</t>
+  </si>
+  <si>
+    <t>｛"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234"｝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>获取个人资料</t>
+  </si>
+  <si>
+    <t>/driver/profile</t>
+  </si>
+  <si>
+    <t>driver_id=8613037253526</t>
+  </si>
+  <si>
+    <t>id~first_name~sex~is_work~username~email~status~tel~car_number~score~last_name~avatar</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>手机号注册</t>
+    <t>修改个人资料</t>
+  </si>
+  <si>
+    <t>/driver/profile/edit</t>
+  </si>
+  <si>
+    <t>｛"driver_id":"123","sex":"0"｝</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>/driver/change_password</t>
+  </si>
+  <si>
+    <t>｛"driver_id":"123","old_pwd":"123456","new_pwd":"q123456"｝</t>
+  </si>
+  <si>
+    <t>绑定手机</t>
+  </si>
+  <si>
+    <t>/driver/profile/binding_tel</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "tel":"8613037253526",
+  "valid_code":"1234"
+｝</t>
+  </si>
+  <si>
+    <t>订单列表</t>
+  </si>
+  <si>
+    <t>/driver/order/list</t>
+  </si>
+  <si>
+    <t>driver_id=123,page=1</t>
+  </si>
+  <si>
+    <t>current~destination~id~departure~departure_time~order_type~status</t>
+  </si>
+  <si>
+    <t>订单详情</t>
+  </si>
+  <si>
+    <t>/driver/order/detail</t>
+  </si>
+  <si>
+    <t>driver_id=123,order_id=20190601</t>
+  </si>
+  <si>
+    <t>distance~pay_amount~destination~destination_name~order_time~pay_method~dep_latitude~pay_time~des_longitude~departure_name~des_latitude~tip_fee~order_amount~fee_detail~id~departure~SN~dep_longitude~appoint_time~departure_time~order_type~user~status</t>
+  </si>
+  <si>
+    <t>消息列表</t>
+  </si>
+  <si>
+    <t>/driver/messages?</t>
+  </si>
+  <si>
+    <t>driver_id=615,page=1</t>
+  </si>
+  <si>
+    <t>content~send_date</t>
+  </si>
+  <si>
+    <t>data包含两个或多个字典</t>
+  </si>
+  <si>
+    <t>我的钱包</t>
+  </si>
+  <si>
+    <t>/driver/my_finance</t>
+  </si>
+  <si>
+    <t>amount~finance~date~amount~cash_confirm~pay_type~record_type</t>
+  </si>
+  <si>
+    <t>显示不同账号的提现信息</t>
+  </si>
+  <si>
+    <t>/driver/pay_account_info</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "payment_method":"0"
+｝</t>
+  </si>
+  <si>
+    <t>amount~bank~bank_code~bank_address~title~cardholder~account</t>
+  </si>
+  <si>
+    <t>提现账号类型 1、银行卡 2、微信 3、Paypal 如果为null则返回所有账号信息</t>
+  </si>
+  <si>
+    <t>提现到银行卡申请</t>
+  </si>
+  <si>
+    <t>/driver/withdrawals</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "amount":"20.00",
+  "account":"银行卡号",
+  "cardholder":"李先生",
+  "bank_address":"广东省东莞市",
+  "bank_code":"12345678",
+  "account_type":"1"
+｝</t>
+  </si>
+  <si>
+    <t>提现到微信申请</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "amount":"20.00",
+  "account":"银行卡号",
+  "cardholder":"",
+  "bank_address":"",
+  "bank_code":"",
+  "account_type":"2"｝</t>
+  </si>
+  <si>
+    <t>提现到申请Paypal</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "amount":"20.00",
+  "account":"银行卡号",
+  "cardholder":"",
+  "bank_address":"",
+  "bank_code":"",
+  "account_type":"3"
+｝</t>
+  </si>
+  <si>
+    <t>司机分享</t>
+  </si>
+  <si>
+    <t>/driver/share_qrcode</t>
+  </si>
+  <si>
+    <t>driver_id=123</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>帮助与反馈</t>
+  </si>
+  <si>
+    <t>/system/feedback</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "content":"this is test"
+｝</t>
+  </si>
+  <si>
+    <t>我的所有课程列表</t>
+  </si>
+  <si>
+    <t>/driver/course/list</t>
+  </si>
+  <si>
+    <t>driver_id=123,page=1,is_sign=0</t>
+  </si>
+  <si>
+    <t>course_id~course_address~course_name~course_time~is_sign</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认为0或者不填都可以，表示查询所有，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示查询已报名的</t>
+    </r>
+  </si>
+  <si>
+    <t>driver_id=123,page=1,is_sign=</t>
+  </si>
+  <si>
+    <t>我的已报名课程列表</t>
+  </si>
+  <si>
+    <t>driver_id=123,page=1,is_sign=1</t>
+  </si>
+  <si>
+    <t>课程明细</t>
+  </si>
+  <si>
+    <t>/driver/course/detail</t>
+  </si>
+  <si>
+    <t>driver_id=123,course_id=2</t>
+  </si>
+  <si>
+    <t>course_address~score~course_name~reg_time_start~course_time~reg_time_end~is_sign</t>
+  </si>
+  <si>
+    <t>课程报名</t>
+  </si>
+  <si>
+    <t>/driver/course/sign</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "course_id":"2"
+｝</t>
+  </si>
+  <si>
+    <t>司机专业指南</t>
+  </si>
+  <si>
+    <t>/system/pro_driver</t>
+  </si>
+  <si>
+    <t>data是一个字符串</t>
+  </si>
+  <si>
+    <t>出车</t>
+  </si>
+  <si>
+    <t>/driver/is_work</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "is_work":"1"
+｝</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>is_tel</t>
+  </si>
+  <si>
+    <t>收车</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "is_work":"2"
+｝</t>
+  </si>
+  <si>
+    <t>更新司机位置</t>
+  </si>
+  <si>
+    <t>/driver/location</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "cur_longitude":"4.0",
+  "cur_latitude":"3.0",
+  "encoded_point":"当前位置的google编码",
+  "cur_address":"司机当前地址"
+｝</t>
+  </si>
+  <si>
+    <t>批量更新司机位置</t>
+  </si>
+  <si>
+    <t>/driver/polyline</t>
+  </si>
+  <si>
+    <t>{
+ "driver_id": 1,
+ "polyline": [{
+  "longitude": 113.743456,
+  "latitude": 23.012345,
+  "address": "东莞南城",
+  "encoded_point": "_weg@we",
+  "time": 1479957996
+ },
+ {
+  "longitude": 113.743456,
+  "latitude": 23.012345,
+  "address": "东莞南城",
+  "encoded_point": "_weg@we",
+  "time": 1479957996
+ }]
+}</t>
+  </si>
+  <si>
+    <t>抢单</t>
+  </si>
+  <si>
+    <t>/driver/order/order_confirm</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "order_id":"1"
+｝</t>
+  </si>
+  <si>
+    <t>已接客</t>
+  </si>
+  <si>
+    <t>/driver/order/shuttle_guests</t>
+  </si>
+  <si>
+    <t>乘客爽约</t>
+  </si>
+  <si>
+    <t>/driver/order/user_miss</t>
+  </si>
+  <si>
+    <t>实时计费</t>
+  </si>
+  <si>
+    <t>/driver/order/calculate_price</t>
+  </si>
+  <si>
+    <t>minimue_fee~mileage_fee~night_fee~total_cost~starting_fee~total_distance~remote_fee~tip_fee~total_time~timer_fee</t>
+  </si>
+  <si>
+    <t>到达目的地</t>
+  </si>
+  <si>
+    <t>/driver/order/arrival</t>
+  </si>
+  <si>
+    <t>minimue_fee~mileage_fee~night_fee~tip_fee~total_cost~starting_fee~total_distance~remote_fee~total_time~timer_fee</t>
+  </si>
+  <si>
+    <t>确认费用</t>
+  </si>
+  <si>
+    <t>/driver/order/price_confirm</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "order_id":"1",
+  "total_price":"20.00",
+  "other_amount":"5.00"
+｝</t>
+  </si>
+  <si>
+    <t>当前订单</t>
+  </si>
+  <si>
+    <t>/driver/order/current</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driver_id=123</t>
+  </si>
+  <si>
+    <t>driver~order</t>
+  </si>
+  <si>
+    <t>现金收取确认</t>
+  </si>
+  <si>
+    <t>/driver/order/confirm_cash</t>
+  </si>
+  <si>
+    <t>司导行程</t>
+  </si>
+  <si>
+    <t>/driver/guide/stroke_list</t>
+  </si>
+  <si>
+    <t>stroke_list</t>
+  </si>
+  <si>
+    <t>司导费用明细</t>
+  </si>
+  <si>
+    <t>/driver/guide/fee_detail</t>
+  </si>
+  <si>
+    <t>fare_amount~order_amount~passengers_num~service_qty~time_unit~order_director</t>
+  </si>
+  <si>
+    <t>司导服务开始</t>
+  </si>
+  <si>
+    <t>/driver/guide/service_start</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "order_id":"1",
+  "order_start_time":20190601""
+｝</t>
+  </si>
+  <si>
+    <t>司导服务结束</t>
+  </si>
+  <si>
+    <t>/driver/guide/service_end</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "order_id":"1",
+  "order_end_time":20190601""
+｝</t>
+  </si>
+  <si>
+    <t>fee_detail</t>
+  </si>
+  <si>
+    <t>确认价格</t>
+  </si>
+  <si>
+    <t>/driver/guide/price_confirm</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "order_id":"1",
+  "total_price":"80.00",
+  "other_amount":"other_amount"
+｝</t>
+  </si>
+  <si>
+    <t>现金支付确认</t>
+  </si>
+  <si>
+    <t>/driver/guide/confirm_cash</t>
+  </si>
+  <si>
+    <t>｛
+  "driver_id":"123",
+  "dir_order_id":"20190605"
+｝</t>
+  </si>
+  <si>
+    <t>查看服务单的价格详情</t>
+  </si>
+  <si>
+    <t>/driver/guide/dir_order_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driver_id=123，dir_order_id=20190605</t>
+  </si>
+  <si>
+    <t>coupon_amount~night_amount~dir_order_id~over_time_amount~service_day~pay_amount~order_amount~other_amount~over_time~status</t>
+  </si>
+  <si>
+    <t>查询当天预约中的司导服务单数量</t>
+  </si>
+  <si>
+    <t>/driver/guide/today_guide_num</t>
+  </si>
+  <si>
+    <t>dir_order_num</t>
+  </si>
+  <si>
+    <t>公共接口</t>
+  </si>
+  <si>
+    <t>获取车型</t>
+  </si>
+  <si>
+    <t>/system/car_type</t>
+  </si>
+  <si>
+    <t>id~name~starting_fee~price_distance~price_time~minimun_fee~remote_start~remote_fee~night_fee~dynamic_fee~additional_fee~night_time_begin~night_time_end~cancel_limit~cancel_fee~book_cancel_fee~exclusive_time_fee~exclusive_minimum_fee~exclusive_cancel_limit~exclusive_cancel_fee~status~img</t>
+  </si>
+  <si>
+    <t>修改语言为中文</t>
+  </si>
+  <si>
+    <t>/system/language</t>
+  </si>
+  <si>
+    <t>language=China</t>
+  </si>
+  <si>
+    <t>修改语言为意大利语</t>
+  </si>
+  <si>
+    <t>language=Italy</t>
+  </si>
+  <si>
+    <t>修改语言为英语</t>
+  </si>
+  <si>
+    <t>language=English</t>
+  </si>
+  <si>
+    <t>上传用户头像</t>
+  </si>
+  <si>
+    <t>/system/upload_img</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"1"
+｝</t>
+  </si>
+  <si>
+    <t>1、用户头像 2、司机头像 
+3、司机身份证正面 4、 司机身份证背面
+5、驾驶证正面  6、驾驶证背面 
+7、行驶证照正面 8、 行驶证背面
+9、资格证正面  10、资格证背面
+ 11、其他证件1  12、其他证件</t>
+  </si>
+  <si>
+    <t>上传司机头像</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"2"
+｝</t>
+  </si>
+  <si>
+    <t>上传司机身份证正面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"3"
+｝</t>
+  </si>
+  <si>
+    <t>上传司机身份证背面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"4"
+｝</t>
+  </si>
+  <si>
+    <t>上传驾驶证正面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"5"
+｝</t>
+  </si>
+  <si>
+    <t>上传驾驶证背面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"6"
+｝</t>
+  </si>
+  <si>
+    <t>上传行驶证正面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"7"
+｝</t>
+  </si>
+  <si>
+    <t>上传行驶证背面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"8"
+｝</t>
+  </si>
+  <si>
+    <t>上传资格证正面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"9"
+｝</t>
+  </si>
+  <si>
+    <t>上传资格证背面</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"10"
+｝</t>
+  </si>
+  <si>
+    <t>上传汽车保险单</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"11"
+｝</t>
+  </si>
+  <si>
+    <t>上传汽车正面照</t>
+  </si>
+  <si>
+    <t>｛
+  "user_id":"123",
+  "driver_id":"123",
+  "car_id":"",
+  "upfile":"",
+  "img_type":"12"
+｝</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>/system/about_us</t>
+  </si>
+  <si>
+    <t>website~tel~email</t>
+  </si>
+  <si>
+    <t>获取软件使用协议</t>
+  </si>
+  <si>
+    <t>/system/get_law/{id}</t>
+  </si>
+  <si>
+    <t>id=1</t>
+  </si>
+  <si>
+    <t>data是一个网页</t>
+  </si>
+  <si>
+    <t>获取共享车用户协议</t>
+  </si>
+  <si>
+    <t>id=2</t>
+  </si>
+  <si>
+    <t>获取出租车服务协议</t>
+  </si>
+  <si>
+    <t>id=3</t>
+  </si>
+  <si>
+    <t>获取司导服务协议</t>
+  </si>
+  <si>
+    <t>id=4</t>
+  </si>
+  <si>
+    <t>获取个人隐私政策</t>
+  </si>
+  <si>
+    <t>id=5</t>
+  </si>
+  <si>
+    <t>获取中国电话代码</t>
+  </si>
+  <si>
+    <t>/system/find/country</t>
+  </si>
+  <si>
+    <t>title~items</t>
+  </si>
+  <si>
+    <t>获取英国电话代码</t>
+  </si>
+  <si>
+    <t>获取意大利电话代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机号注册
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -94,49 +941,20 @@
     </r>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"username":"8613037253526","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"}</t>
   </si>
   <si>
-    <t>driver_id</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>邮箱注册</t>
+    <t xml:space="preserve">邮箱注册
+</t>
   </si>
   <si>
     <t>{"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"}</t>
   </si>
   <si>
-    <t>完善资料</t>
-  </si>
-  <si>
-    <t>/driver/register/fill_driver_info</t>
-  </si>
-  <si>
     <t>{"driver_id":"8613037253526","first_name":"jack","last_name":"bryce","sex":"1","car_type":"1","car_num":"lwx-aaa"}</t>
   </si>
   <si>
-    <t>driver_id~carType~car_id</t>
-  </si>
-  <si>
-    <t>完成注册</t>
-  </si>
-  <si>
-    <t>/driver/register/finish_register</t>
-  </si>
-  <si>
     <t>{"driver_id":"8613037253526","job_number":"001"}</t>
-  </si>
-  <si>
-    <t>driver_id~token</t>
-  </si>
-  <si>
-    <t>手机号登录</t>
   </si>
   <si>
     <r>
@@ -171,21 +989,7 @@
     <t>{"username":"8613037253528","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"}</t>
   </si>
   <si>
-    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~car_type~avatar~score~amount</t>
-  </si>
-  <si>
-    <t>邮箱登录</t>
-  </si>
-  <si>
     <t>{"username":"271295224@qq.com","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机号注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邮箱注册
-</t>
   </si>
 </sst>
 </file>
@@ -193,12 +997,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,25 +1032,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -258,50 +1072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +1086,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,23 +1109,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -371,9 +1139,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -392,7 +1234,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,97 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,67 +1396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +1453,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -621,6 +1487,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,36 +1530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -689,15 +1540,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +1548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,137 +1560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,13 +1718,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,34 +2070,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.2166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5583333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.5583333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.5583333333333" style="11" customWidth="1"/>
     <col min="4" max="4" width="10.775" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.1083333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.1083333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.4416666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5583333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.5583333333333" style="10" customWidth="1"/>
     <col min="9" max="9" width="15.5583333333333" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1246,7 +2113,7 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1257,7 +2124,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1275,7 +2142,7 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1286,7 +2153,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1304,28 +2171,28 @@
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -1333,28 +2200,28 @@
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -1362,28 +2229,28 @@
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
+      <c r="H5" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -1391,28 +2258,28 @@
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>32</v>
+      <c r="H6" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1420,28 +2287,28 @@
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
+      <c r="H7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -1449,11 +2316,1650 @@
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:12">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
+      <c r="B38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:10">
+      <c r="B56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:9">
+      <c r="B60" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:9">
+      <c r="B63" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:9">
+      <c r="B64" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:9">
+      <c r="B65" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:9">
+      <c r="B66" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:9">
+      <c r="B67" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:9">
+      <c r="B68" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:10">
+      <c r="B69" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:10">
+      <c r="B70" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:10">
+      <c r="B71" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:10">
+      <c r="B72" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:10">
+      <c r="B73" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:9">
+      <c r="B74" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:9">
+      <c r="B75" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:9">
+      <c r="B76" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +3975,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelRow="6"/>
@@ -1520,16 +4026,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
@@ -1541,7 +4047,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -1549,16 +4055,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>234</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -1570,7 +4076,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -1578,16 +4084,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -1595,11 +4101,11 @@
       <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>28</v>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -1607,16 +4113,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -1624,11 +4130,11 @@
       <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>32</v>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
@@ -1636,16 +4142,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -1654,10 +4160,10 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -1665,16 +4171,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1683,10 +4189,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceTest/TestCase/TestCase000.xlsx
+++ b/InterfaceTest/TestCase/TestCase000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="滴士出行司机端" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="240">
   <si>
     <t>用例编号</t>
   </si>
@@ -53,7 +53,25 @@
     <t>get</t>
   </si>
   <si>
-    <t>username=8613037253526,valid_type=1</t>
+    <t>username=8613037253526,valid_type=3</t>
+  </si>
+  <si>
+    <t>返回值=n</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>手机号注册</t>
+  </si>
+  <si>
+    <t>/driver/register</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"username":"123","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"}</t>
   </si>
   <si>
     <t>返回值=y</t>
@@ -62,31 +80,16 @@
     <t>str</t>
   </si>
   <si>
-    <t>msg~code~status</t>
+    <t>driver_id</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>手机号注册</t>
-  </si>
-  <si>
-    <t>/driver/register</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>｛"username":"123","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"｝</t>
-  </si>
-  <si>
-    <t>driver_id</t>
-  </si>
-  <si>
     <t>邮箱注册</t>
   </si>
   <si>
-    <t>｛"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"｝</t>
+    <t>{"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"}</t>
   </si>
   <si>
     <t>完善资料</t>
@@ -95,7 +98,7 @@
     <t>/driver/register/fill_driver_info</t>
   </si>
   <si>
-    <t>｛"driver_id":"123","first_name":"jack","last_name":"bryce","sex":"1","car_type":"1","car_num":"lwx-aaa"｝</t>
+    <t>{"driver_id":"123","first_name":"jack","last_name":"bryce","sex":"1","car_type":"1","car_num":"lwx-aaa"}</t>
   </si>
   <si>
     <t>driver_id~carType~car_id</t>
@@ -107,7 +110,7 @@
     <t>/driver/register/finish_register</t>
   </si>
   <si>
-    <t>｛"driver_id":"123","job_number":"001"｝</t>
+    <t>{"driver_id":"123","job_number":"001"}</t>
   </si>
   <si>
     <t>driver_id~token</t>
@@ -116,26 +119,29 @@
     <t>手机号登录</t>
   </si>
   <si>
-    <t>/user/login</t>
+    <t>/driver/login</t>
   </si>
   <si>
     <t>{
- "username":"8618899715996",
+ "username":"8613037253526",
  "password":"123456",
- "device_id":"ffffffff-fb4a-5b9b-0000-00001509babd",
+ "device_id":"ffffffff-c4af-b477-0000-000029191cb8",
  "platform":"android",
  "device_token":"",
- "language":"china"
+ "language":"China"
 }</t>
   </si>
   <si>
-    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~car_type~avatar~score~amount</t>
+    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~avatar~score~amount</t>
   </si>
   <si>
     <t>邮箱登录</t>
   </si>
   <si>
-    <t>｛"username":"271295224@qq.com","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"｝</t>
+    <t>{"username":"271295224@qq.com","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"}</t>
+  </si>
+  <si>
+    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~car_type_id~avatar~score~amount</t>
   </si>
   <si>
     <t>退出登录</t>
@@ -144,10 +150,7 @@
     <t>/driver/logout</t>
   </si>
   <si>
-    <t>｛"driver_id":"123"｝</t>
-  </si>
-  <si>
-    <t>返回值=n</t>
+    <t>{"driver_id":"663"}</t>
   </si>
   <si>
     <t>忘记密码</t>
@@ -156,7 +159,7 @@
     <t>/driver/login/forget_pwd</t>
   </si>
   <si>
-    <t>｛"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234"｝</t>
+    <t>{"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234"}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -174,16 +177,13 @@
     <t>id~first_name~sex~is_work~username~email~status~tel~car_number~score~last_name~avatar</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>修改个人资料</t>
   </si>
   <si>
     <t>/driver/profile/edit</t>
   </si>
   <si>
-    <t>｛"driver_id":"123","sex":"0"｝</t>
+    <t>{"driver_id":"123","sex":"0"}</t>
   </si>
   <si>
     <t>修改密码</t>
@@ -192,7 +192,7 @@
     <t>/driver/change_password</t>
   </si>
   <si>
-    <t>｛"driver_id":"123","old_pwd":"123456","new_pwd":"q123456"｝</t>
+    <t>{"driver_id":"123","old_pwd":"123456","new_pwd":"q123456"}</t>
   </si>
   <si>
     <t>绑定手机</t>
@@ -201,11 +201,11 @@
     <t>/driver/profile/binding_tel</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "tel":"8613037253526",
   "valid_code":"1234"
-｝</t>
+}</t>
   </si>
   <si>
     <t>订单列表</t>
@@ -262,10 +262,10 @@
     <t>/driver/pay_account_info</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "payment_method":"0"
-｝</t>
+}</t>
   </si>
   <si>
     <t>amount~bank~bank_code~bank_address~title~cardholder~account</t>
@@ -280,7 +280,7 @@
     <t>/driver/withdrawals</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "amount":"20.00",
   "account":"银行卡号",
@@ -288,26 +288,26 @@
   "bank_address":"广东省东莞市",
   "bank_code":"12345678",
   "account_type":"1"
-｝</t>
+}</t>
   </si>
   <si>
     <t>提现到微信申请</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "amount":"20.00",
   "account":"银行卡号",
   "cardholder":"",
   "bank_address":"",
   "bank_code":"",
-  "account_type":"2"｝</t>
+  "account_type":"2"}</t>
   </si>
   <si>
     <t>提现到申请Paypal</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "amount":"20.00",
   "account":"银行卡号",
@@ -315,7 +315,7 @@
   "bank_address":"",
   "bank_code":"",
   "account_type":"3"
-｝</t>
+}</t>
   </si>
   <si>
     <t>司机分享</t>
@@ -336,10 +336,10 @@
     <t>/system/feedback</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "content":"this is test"
-｝</t>
+}</t>
   </si>
   <si>
     <t>我的所有课程列表</t>
@@ -410,10 +410,10 @@
     <t>/driver/course/sign</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "course_id":"2"
-｝</t>
+}</t>
   </si>
   <si>
     <t>司机专业指南</t>
@@ -431,10 +431,10 @@
     <t>/driver/is_work</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "is_work":"1"
-｝</t>
+}</t>
   </si>
   <si>
     <t>dict</t>
@@ -446,10 +446,10 @@
     <t>收车</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "is_work":"2"
-｝</t>
+}</t>
   </si>
   <si>
     <t>更新司机位置</t>
@@ -458,13 +458,13 @@
     <t>/driver/location</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "cur_longitude":"4.0",
   "cur_latitude":"3.0",
   "encoded_point":"当前位置的google编码",
   "cur_address":"司机当前地址"
-｝</t>
+}</t>
   </si>
   <si>
     <t>批量更新司机位置</t>
@@ -498,10 +498,10 @@
     <t>/driver/order/order_confirm</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "order_id":"1"
-｝</t>
+}</t>
   </si>
   <si>
     <t>已接客</t>
@@ -540,12 +540,12 @@
     <t>/driver/order/price_confirm</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "order_id":"1",
   "total_price":"20.00",
   "other_amount":"5.00"
-｝</t>
+}</t>
   </si>
   <si>
     <t>当前订单</t>
@@ -590,11 +590,11 @@
     <t>/driver/guide/service_start</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "order_id":"1",
-  "order_start_time":20190601""
-｝</t>
+  "order_start_time":"20190600"
+}</t>
   </si>
   <si>
     <t>司导服务结束</t>
@@ -603,11 +603,11 @@
     <t>/driver/guide/service_end</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "order_id":"1",
-  "order_end_time":20190601""
-｝</t>
+  "order_end_time":"20190601"
+}</t>
   </si>
   <si>
     <t>fee_detail</t>
@@ -619,12 +619,12 @@
     <t>/driver/guide/price_confirm</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "order_id":"1",
   "total_price":"80.00",
   "other_amount":"other_amount"
-｝</t>
+}</t>
   </si>
   <si>
     <t>现金支付确认</t>
@@ -633,10 +633,10 @@
     <t>/driver/guide/confirm_cash</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "driver_id":"123",
   "dir_order_id":"20190605"
-｝</t>
+}</t>
   </si>
   <si>
     <t>查看服务单的价格详情</t>
@@ -699,13 +699,13 @@
     <t>/system/upload_img</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"1"
-｝</t>
+}</t>
   </si>
   <si>
     <t>1、用户头像 2、司机头像 
@@ -719,133 +719,133 @@
     <t>上传司机头像</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"2"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传司机身份证正面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"3"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传司机身份证背面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"4"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传驾驶证正面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"5"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传驾驶证背面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"6"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传行驶证正面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"7"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传行驶证背面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"8"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传资格证正面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"9"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传资格证背面</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"10"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传汽车保险单</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"11"
-｝</t>
+}</t>
   </si>
   <si>
     <t>上传汽车正面照</t>
   </si>
   <si>
-    <t>｛
+    <t>{
   "user_id":"123",
   "driver_id":"123",
   "car_id":"",
   "upfile":"",
   "img_type":"12"
-｝</t>
+}</t>
   </si>
   <si>
     <t>关于我们</t>
@@ -948,9 +948,6 @@
 </t>
   </si>
   <si>
-    <t>{"username":"271295224@qq.com","password":"123456","confirm_password":"123456","valid_code":"1234","recommender":"8613037253526"}</t>
-  </si>
-  <si>
     <t>{"driver_id":"8613037253526","first_name":"jack","last_name":"bryce","sex":"1","car_type":"1","car_num":"lwx-aaa"}</t>
   </si>
   <si>
@@ -989,7 +986,7 @@
     <t>{"username":"8613037253528","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"}</t>
   </si>
   <si>
-    <t>{"username":"271295224@qq.com","password":"123456","device_id":"ffffffff-fb4a-5b9b-0000-00001509babd","platform":"android","device_token":"","language":"china"}</t>
+    <t>first_name~sex~is_work~username~token~car_id~status~last_name~number~driver_id~car_type~avatar~score~amount</t>
   </si>
 </sst>
 </file>
@@ -997,8 +994,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1063,31 +1060,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,17 +1083,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,6 +1113,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1155,31 +1169,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,14 +1192,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,18 +1231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1270,6 +1255,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1283,6 +1274,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,31 +1345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,6 +1364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,31 +1393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,12 +1412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,39 +1436,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,6 +1470,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1529,17 +1537,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1548,10 +1545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1560,133 +1557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2072,8 +2069,8 @@
   <sheetPr/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -2139,271 +2136,267 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>51</v>
@@ -2412,21 +2405,21 @@
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>54</v>
@@ -2435,21 +2428,21 @@
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:9">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>57</v>
@@ -2458,21 +2451,21 @@
         <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>60</v>
@@ -2487,18 +2480,18 @@
         <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>64</v>
@@ -2513,18 +2506,18 @@
         <v>66</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>68</v>
@@ -2539,13 +2532,13 @@
         <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>72</v>
@@ -2553,7 +2546,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>73</v>
@@ -2568,18 +2561,18 @@
         <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:12">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>76</v>
@@ -2588,19 +2581,19 @@
         <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>80</v>
@@ -2609,7 +2602,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:9">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>81</v>
@@ -2618,24 +2611,24 @@
         <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>84</v>
@@ -2644,23 +2637,23 @@
         <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>86</v>
@@ -2669,23 +2662,23 @@
         <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="10"/>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>88</v>
@@ -2700,18 +2693,18 @@
         <v>90</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>92</v>
@@ -2720,21 +2713,21 @@
         <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>95</v>
@@ -2749,13 +2742,13 @@
         <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>99</v>
@@ -2763,7 +2756,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>95</v>
@@ -2778,19 +2771,19 @@
         <v>100</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>101</v>
@@ -2805,18 +2798,18 @@
         <v>102</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>103</v>
@@ -2831,18 +2824,18 @@
         <v>105</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>106</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>107</v>
@@ -2851,21 +2844,21 @@
         <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>110</v>
@@ -2877,13 +2870,13 @@
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>112</v>
@@ -2891,7 +2884,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:9">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>113</v>
@@ -2900,13 +2893,13 @@
         <v>114</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>116</v>
@@ -2915,12 +2908,12 @@
         <v>117</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>118</v>
@@ -2929,13 +2922,13 @@
         <v>114</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>116</v>
@@ -2944,12 +2937,12 @@
         <v>117</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>120</v>
@@ -2958,21 +2951,21 @@
         <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>123</v>
@@ -2981,21 +2974,21 @@
         <v>124</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>126</v>
@@ -3004,21 +2997,21 @@
         <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>129</v>
@@ -3027,21 +3020,21 @@
         <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>131</v>
@@ -3050,21 +3043,21 @@
         <v>132</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>133</v>
@@ -3079,7 +3072,7 @@
         <v>105</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>116</v>
@@ -3088,12 +3081,12 @@
         <v>135</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>136</v>
@@ -3102,13 +3095,13 @@
         <v>137</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>116</v>
@@ -3117,12 +3110,12 @@
         <v>138</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3131,21 +3124,21 @@
         <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>142</v>
@@ -3160,7 +3153,7 @@
         <v>144</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>116</v>
@@ -3169,12 +3162,12 @@
         <v>145</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>146</v>
@@ -3183,21 +3176,21 @@
         <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>148</v>
@@ -3212,7 +3205,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>116</v>
@@ -3221,12 +3214,12 @@
         <v>150</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:9">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>151</v>
@@ -3241,7 +3234,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>116</v>
@@ -3250,12 +3243,12 @@
         <v>153</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:9">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>154</v>
@@ -3264,21 +3257,21 @@
         <v>155</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:9">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>157</v>
@@ -3287,13 +3280,13 @@
         <v>158</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>116</v>
@@ -3302,12 +3295,12 @@
         <v>160</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:9">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>161</v>
@@ -3316,21 +3309,21 @@
         <v>162</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>164</v>
@@ -3339,21 +3332,21 @@
         <v>165</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:9">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>167</v>
@@ -3368,18 +3361,18 @@
         <v>169</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>170</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:9">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>171</v>
@@ -3394,13 +3387,13 @@
         <v>66</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>173</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
@@ -3419,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>116</v>
@@ -3428,7 +3421,7 @@
         <v>177</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -3445,10 +3438,10 @@
         <v>180</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -3465,10 +3458,10 @@
         <v>182</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -3485,10 +3478,10 @@
         <v>184</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:10">
@@ -3499,16 +3492,16 @@
         <v>186</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>188</v>
@@ -3522,16 +3515,16 @@
         <v>186</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -3542,16 +3535,16 @@
         <v>186</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -3562,16 +3555,16 @@
         <v>186</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -3582,16 +3575,16 @@
         <v>186</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -3602,16 +3595,16 @@
         <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -3622,16 +3615,16 @@
         <v>186</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -3642,16 +3635,16 @@
         <v>186</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -3662,16 +3655,16 @@
         <v>186</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:9">
@@ -3682,16 +3675,16 @@
         <v>186</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:9">
@@ -3702,16 +3695,16 @@
         <v>186</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:9">
@@ -3722,16 +3715,16 @@
         <v>186</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:9">
@@ -3745,13 +3738,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>213</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:10">
@@ -3768,13 +3761,13 @@
         <v>216</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>217</v>
@@ -3794,13 +3787,13 @@
         <v>219</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>217</v>
@@ -3820,13 +3813,13 @@
         <v>221</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>217</v>
@@ -3846,13 +3839,13 @@
         <v>223</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>217</v>
@@ -3872,13 +3865,13 @@
         <v>225</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>217</v>
@@ -3898,7 +3891,7 @@
         <v>180</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>116</v>
@@ -3907,7 +3900,7 @@
         <v>228</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:9">
@@ -3924,7 +3917,7 @@
         <v>184</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>116</v>
@@ -3933,7 +3926,7 @@
         <v>228</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:9">
@@ -3950,7 +3943,7 @@
         <v>182</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>116</v>
@@ -3959,7 +3952,7 @@
         <v>228</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4032,22 +4025,22 @@
         <v>232</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>233</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -4061,22 +4054,22 @@
         <v>232</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -4084,28 +4077,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -4113,28 +4106,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
@@ -4142,28 +4135,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -4171,28 +4164,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
